--- a/2019_dkp/2020_01_08_dkp.xlsx
+++ b/2019_dkp/2020_01_08_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45B3C1-C3BE-4E75-B9D7-DAEF841C8139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B873C3-BE80-445C-B1F7-33C4321D7D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>MC分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>超级牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +677,10 @@
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
+      <selection pane="bottomRight" activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2093,16 +2097,18 @@
       <c r="I48" s="8"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="7"/>
+      <c r="L48" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="M48" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="5"/>
       <c r="P48" s="9">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">

--- a/2019_dkp/2020_01_08_dkp.xlsx
+++ b/2019_dkp/2020_01_08_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B873C3-BE80-445C-B1F7-33C4321D7D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366970F-5BAB-46C4-ADB8-3FC6F56F3C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="2415" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -677,10 +677,10 @@
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S50" sqref="S50"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -871,7 +871,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
